--- a/Challenge 4 - Design a sustainable business model/Financial_plan_Agile_ENG_v.def.xlsx
+++ b/Challenge 4 - Design a sustainable business model/Financial_plan_Agile_ENG_v.def.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="(0) LIMITATIONS" sheetId="1" state="visible" r:id="rId1"/>
@@ -438,7 +438,6 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">(1) </t>
@@ -446,7 +445,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
@@ -456,7 +454,6 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">DATA Entry </t>
@@ -464,7 +461,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
@@ -479,7 +475,6 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">(2) </t>
@@ -487,7 +482,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
@@ -497,7 +491,6 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">ESTIMATION of sales (units) </t>
@@ -505,7 +498,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
@@ -515,7 +507,6 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">And see Forecasts</t>
@@ -526,7 +517,6 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">(3) </t>
@@ -534,7 +524,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
@@ -544,7 +533,6 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">View INCOME STATEMENT AND RESULTS</t>
@@ -552,7 +540,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
@@ -562,7 +549,6 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">And other INDICATORS</t>
@@ -573,7 +559,6 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">(4) </t>
@@ -581,7 +566,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
@@ -591,7 +575,6 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">View evolution graph</t>
@@ -599,7 +582,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
@@ -609,7 +591,6 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">TREASURY (end needs)</t>
@@ -640,7 +621,6 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">(2) </t>
@@ -648,7 +628,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
@@ -658,7 +637,6 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">ESTIMATION of sales (units) </t>
@@ -666,7 +644,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
@@ -676,7 +653,6 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">And see PROJECTIONS</t>
@@ -687,7 +663,6 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">(3) </t>
@@ -695,7 +670,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
@@ -705,7 +679,6 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">View NOTHING ACCOUNT.</t>
@@ -713,7 +686,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
@@ -723,7 +695,6 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">And other INDICATORS</t>
@@ -734,7 +705,6 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">(4) </t>
@@ -742,7 +712,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
@@ -752,7 +721,6 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">View evolution graph</t>
@@ -760,7 +728,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
@@ -770,7 +737,6 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t>TREASURY</t>
@@ -852,7 +818,7 @@
     <t>INVESTMENT</t>
   </si>
   <si>
-    <t xml:space="preserve">Funding from Friends and Family</t>
+    <t xml:space="preserve">Funding from Friends and Relatives</t>
   </si>
   <si>
     <t xml:space="preserve">Investor Funding</t>
@@ -1007,7 +973,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">spent var.</t>
@@ -1488,7 +1453,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Month with positive monthly result</t>
@@ -1498,7 +1462,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Month with positive cumulative result</t>
@@ -1508,7 +1471,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Accumulated income BEFORE financing</t>
@@ -1518,7 +1480,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Accumulated result AFTER funding</t>
@@ -1707,7 +1668,6 @@
       <rPr>
         <i/>
         <sz val="8"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">monthly interest</t>
@@ -1789,7 +1749,7 @@
   <fonts count="36">
     <font>
       <sz val="10.000000"/>
-      <color indexed="64"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -1875,7 +1835,6 @@
     <font>
       <b/>
       <sz val="10.000000"/>
-      <color indexed="64"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1912,7 +1871,6 @@
     </font>
     <font>
       <sz val="10.000000"/>
-      <color indexed="64"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1973,18 +1931,15 @@
     <font>
       <i/>
       <sz val="10.000000"/>
-      <color indexed="64"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
       <sz val="8.000000"/>
-      <color indexed="64"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="11.000000"/>
-      <color indexed="64"/>
       <name val="Open Sans"/>
     </font>
   </fonts>
@@ -2166,11 +2121,11 @@
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2178,26 +2133,26 @@
     <border>
       <left/>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2307,11 +2262,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2320,7 +2275,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2328,10 +2283,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -7077,7 +7032,7 @@
         <v>3000</v>
       </c>
       <c r="F63" s="44">
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="33" t="s">
@@ -7188,7 +7143,7 @@
         <v>80</v>
       </c>
       <c r="F66" s="44">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="35" t="s">
@@ -7597,7 +7552,7 @@
       </c>
       <c r="F77" s="46">
         <f t="shared" si="1"/>
-        <v>77380</v>
+        <v>45860</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="33" t="s">
@@ -15487,55 +15442,55 @@
       <c r="S67" s="97"/>
       <c r="T67" s="95">
         <f>'(1) DATA &amp; ASSUMPTIONS'!$F63</f>
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="U67" s="95">
         <f>'(1) DATA &amp; ASSUMPTIONS'!$F63</f>
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="V67" s="95">
         <f>'(1) DATA &amp; ASSUMPTIONS'!$F63</f>
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="W67" s="95">
         <f>'(1) DATA &amp; ASSUMPTIONS'!$F63</f>
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="X67" s="95">
         <f>'(1) DATA &amp; ASSUMPTIONS'!$F63</f>
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="Y67" s="95">
         <f>'(1) DATA &amp; ASSUMPTIONS'!$F63</f>
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="Z67" s="95">
         <f>'(1) DATA &amp; ASSUMPTIONS'!$F63</f>
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="AA67" s="95">
         <f>'(1) DATA &amp; ASSUMPTIONS'!$F63</f>
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="AB67" s="95">
         <f>'(1) DATA &amp; ASSUMPTIONS'!$F63</f>
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="AC67" s="95">
         <f>'(1) DATA &amp; ASSUMPTIONS'!$F63</f>
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="AD67" s="95">
         <f>'(1) DATA &amp; ASSUMPTIONS'!$F63</f>
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="AE67" s="95">
         <f>'(1) DATA &amp; ASSUMPTIONS'!$F63</f>
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="AF67" s="96">
         <f t="shared" ref="AF67:AF80" si="22">SUM(T67:AE67)</f>
-        <v>420000</v>
+        <v>42000</v>
       </c>
       <c r="AG67" s="72"/>
       <c r="AH67" s="72"/>
@@ -15886,55 +15841,55 @@
       <c r="S70" s="97"/>
       <c r="T70" s="95">
         <f>'(1) DATA &amp; ASSUMPTIONS'!$F66</f>
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="U70" s="95">
         <f>'(1) DATA &amp; ASSUMPTIONS'!$F66</f>
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="V70" s="95">
         <f>'(1) DATA &amp; ASSUMPTIONS'!$F66</f>
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="W70" s="95">
         <f>'(1) DATA &amp; ASSUMPTIONS'!$F66</f>
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="X70" s="95">
         <f>'(1) DATA &amp; ASSUMPTIONS'!$F66</f>
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="Y70" s="95">
         <f>'(1) DATA &amp; ASSUMPTIONS'!$F66</f>
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="Z70" s="95">
         <f>'(1) DATA &amp; ASSUMPTIONS'!$F66</f>
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AA70" s="95">
         <f>'(1) DATA &amp; ASSUMPTIONS'!$F66</f>
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AB70" s="95">
         <f>'(1) DATA &amp; ASSUMPTIONS'!$F66</f>
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AC70" s="95">
         <f>'(1) DATA &amp; ASSUMPTIONS'!$F66</f>
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AD70" s="95">
         <f>'(1) DATA &amp; ASSUMPTIONS'!$F66</f>
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AE70" s="95">
         <f>'(1) DATA &amp; ASSUMPTIONS'!$F66</f>
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AF70" s="96">
         <f t="shared" si="22"/>
-        <v>1560</v>
+        <v>1320</v>
       </c>
       <c r="AG70" s="72"/>
       <c r="AH70" s="72"/>
@@ -17350,55 +17305,55 @@
       <c r="S81" s="113"/>
       <c r="T81" s="101">
         <f t="shared" ref="T81:AF81" si="24">SUM(T67:T80)</f>
-        <v>77380</v>
+        <v>45860</v>
       </c>
       <c r="U81" s="101">
         <f t="shared" si="24"/>
-        <v>77380</v>
+        <v>45860</v>
       </c>
       <c r="V81" s="101">
         <f t="shared" si="24"/>
-        <v>77380</v>
+        <v>45860</v>
       </c>
       <c r="W81" s="101">
         <f t="shared" si="24"/>
-        <v>77380</v>
+        <v>45860</v>
       </c>
       <c r="X81" s="101">
         <f t="shared" si="24"/>
-        <v>77380</v>
+        <v>45860</v>
       </c>
       <c r="Y81" s="101">
         <f t="shared" si="24"/>
-        <v>77380</v>
+        <v>45860</v>
       </c>
       <c r="Z81" s="101">
         <f t="shared" si="24"/>
-        <v>77380</v>
+        <v>45860</v>
       </c>
       <c r="AA81" s="101">
         <f t="shared" si="24"/>
-        <v>77380</v>
+        <v>45860</v>
       </c>
       <c r="AB81" s="101">
         <f t="shared" si="24"/>
-        <v>77380</v>
+        <v>45860</v>
       </c>
       <c r="AC81" s="101">
         <f t="shared" si="24"/>
-        <v>77380</v>
+        <v>45860</v>
       </c>
       <c r="AD81" s="101">
         <f t="shared" si="24"/>
-        <v>77380</v>
+        <v>45860</v>
       </c>
       <c r="AE81" s="101">
         <f t="shared" si="24"/>
-        <v>77380</v>
+        <v>45860</v>
       </c>
       <c r="AF81" s="101">
         <f t="shared" si="24"/>
-        <v>928560</v>
+        <v>550320</v>
       </c>
       <c r="AG81" s="85"/>
       <c r="AH81" s="85"/>
@@ -17856,55 +17811,55 @@
       <c r="S89" s="131"/>
       <c r="T89" s="130">
         <f t="shared" ref="T89:AE89" si="26">T63-T81-T84</f>
-        <v>174041</v>
+        <v>205561</v>
       </c>
       <c r="U89" s="130">
         <f t="shared" si="26"/>
-        <v>191292.5</v>
+        <v>222812.5</v>
       </c>
       <c r="V89" s="130">
         <f t="shared" si="26"/>
-        <v>200767.25</v>
+        <v>232287.25</v>
       </c>
       <c r="W89" s="130">
         <f t="shared" si="26"/>
-        <v>201225.5</v>
+        <v>232745.5</v>
       </c>
       <c r="X89" s="130">
         <f t="shared" si="26"/>
-        <v>208593.5</v>
+        <v>240113.5</v>
       </c>
       <c r="Y89" s="130">
         <f t="shared" si="26"/>
-        <v>218372</v>
+        <v>249892</v>
       </c>
       <c r="Z89" s="130">
         <f t="shared" si="26"/>
-        <v>229629.5</v>
+        <v>261149.5</v>
       </c>
       <c r="AA89" s="130">
         <f t="shared" si="26"/>
-        <v>218924</v>
+        <v>250444</v>
       </c>
       <c r="AB89" s="130">
         <f t="shared" si="26"/>
-        <v>220653.5</v>
+        <v>252173.5</v>
       </c>
       <c r="AC89" s="130">
         <f t="shared" si="26"/>
-        <v>239573.75</v>
+        <v>271093.75</v>
       </c>
       <c r="AD89" s="130">
         <f t="shared" si="26"/>
-        <v>233079.5</v>
+        <v>264599.5</v>
       </c>
       <c r="AE89" s="130">
         <f t="shared" si="26"/>
-        <v>220274</v>
+        <v>251794</v>
       </c>
       <c r="AF89" s="101">
         <f>SUM(T89:AE89)</f>
-        <v>2556426</v>
+        <v>2934666</v>
       </c>
       <c r="AG89" s="2"/>
       <c r="AH89" s="2"/>
@@ -17987,51 +17942,51 @@
       <c r="S90" s="12"/>
       <c r="T90" s="130">
         <f>Q90+T89</f>
-        <v>-2519684</v>
+        <v>-2488164</v>
       </c>
       <c r="U90" s="130">
         <f t="shared" ref="U90:AE90" si="28">T90+U89</f>
-        <v>-2328391.5</v>
+        <v>-2265351.5</v>
       </c>
       <c r="V90" s="130">
         <f t="shared" si="28"/>
-        <v>-2127624.25</v>
+        <v>-2033064.25</v>
       </c>
       <c r="W90" s="130">
         <f t="shared" si="28"/>
-        <v>-1926398.75</v>
+        <v>-1800318.75</v>
       </c>
       <c r="X90" s="130">
         <f t="shared" si="28"/>
-        <v>-1717805.25</v>
+        <v>-1560205.25</v>
       </c>
       <c r="Y90" s="130">
         <f t="shared" si="28"/>
-        <v>-1499433.25</v>
+        <v>-1310313.25</v>
       </c>
       <c r="Z90" s="130">
         <f t="shared" si="28"/>
-        <v>-1269803.75</v>
+        <v>-1049163.75</v>
       </c>
       <c r="AA90" s="130">
         <f t="shared" si="28"/>
-        <v>-1050879.75</v>
+        <v>-798719.75</v>
       </c>
       <c r="AB90" s="130">
         <f t="shared" si="28"/>
-        <v>-830226.25</v>
+        <v>-546546.25</v>
       </c>
       <c r="AC90" s="130">
         <f t="shared" si="28"/>
-        <v>-590652.5</v>
+        <v>-275452.5</v>
       </c>
       <c r="AD90" s="130">
         <f t="shared" si="28"/>
-        <v>-357573</v>
+        <v>-10853</v>
       </c>
       <c r="AE90" s="130">
         <f t="shared" si="28"/>
-        <v>-137299</v>
+        <v>240941</v>
       </c>
       <c r="AF90" s="130"/>
       <c r="AG90" s="2"/>
@@ -19020,55 +18975,55 @@
       <c r="S105" s="131"/>
       <c r="T105" s="130">
         <f t="shared" ref="T105:AE105" ca="1" si="32">T89+T100</f>
-        <v>158574.7587764574</v>
+        <v>190094.7587764574</v>
       </c>
       <c r="U105" s="130">
         <f t="shared" ca="1" si="32"/>
-        <v>175826.2587764574</v>
+        <v>207346.2587764574</v>
       </c>
       <c r="V105" s="130">
         <f t="shared" ca="1" si="32"/>
-        <v>185301.0087764574</v>
+        <v>216821.0087764574</v>
       </c>
       <c r="W105" s="130">
         <f t="shared" ca="1" si="32"/>
-        <v>185759.2587764574</v>
+        <v>217279.2587764574</v>
       </c>
       <c r="X105" s="130">
         <f t="shared" ca="1" si="32"/>
-        <v>193127.2587764574</v>
+        <v>224647.2587764574</v>
       </c>
       <c r="Y105" s="130">
         <f t="shared" ca="1" si="32"/>
-        <v>202905.7587764574</v>
+        <v>234425.7587764574</v>
       </c>
       <c r="Z105" s="130">
         <f t="shared" ca="1" si="32"/>
-        <v>214163.2587764574</v>
+        <v>245683.2587764574</v>
       </c>
       <c r="AA105" s="130">
         <f t="shared" ca="1" si="32"/>
-        <v>203457.7587764574</v>
+        <v>234977.7587764574</v>
       </c>
       <c r="AB105" s="130">
         <f t="shared" ca="1" si="32"/>
-        <v>205187.2587764574</v>
+        <v>236707.2587764574</v>
       </c>
       <c r="AC105" s="130">
         <f t="shared" ca="1" si="32"/>
-        <v>224107.5087764574</v>
+        <v>255627.5087764574</v>
       </c>
       <c r="AD105" s="130">
         <f t="shared" ca="1" si="32"/>
-        <v>217613.2587764574</v>
+        <v>249133.2587764574</v>
       </c>
       <c r="AE105" s="130">
         <f t="shared" ca="1" si="32"/>
-        <v>204807.7587764574</v>
+        <v>236327.7587764574</v>
       </c>
       <c r="AF105" s="101">
         <f t="shared" ca="1" si="30"/>
-        <v>2370831.1053174892</v>
+        <v>2749071.1053174897</v>
       </c>
       <c r="AG105" s="2"/>
       <c r="AH105" s="2"/>
@@ -19151,51 +19106,51 @@
       <c r="S106" s="12"/>
       <c r="T106" s="130">
         <f ca="1">Q106+T105</f>
-        <v>-1635745.1359060537</v>
+        <v>-1604225.1359060537</v>
       </c>
       <c r="U106" s="130">
         <f t="shared" ref="U106:AE106" ca="1" si="34">T106+U105</f>
-        <v>-1459918.8771295962</v>
+        <v>-1396878.8771295962</v>
       </c>
       <c r="V106" s="130">
         <f t="shared" ca="1" si="34"/>
-        <v>-1274617.8683531387</v>
+        <v>-1180057.8683531387</v>
       </c>
       <c r="W106" s="130">
         <f t="shared" ca="1" si="34"/>
-        <v>-1088858.6095766812</v>
+        <v>-962778.60957668128</v>
       </c>
       <c r="X106" s="130">
         <f t="shared" ca="1" si="34"/>
-        <v>-895731.35080022376</v>
+        <v>-738131.35080022388</v>
       </c>
       <c r="Y106" s="130">
         <f t="shared" ca="1" si="34"/>
-        <v>-692825.59202376637</v>
+        <v>-503705.59202376648</v>
       </c>
       <c r="Z106" s="130">
         <f t="shared" ca="1" si="34"/>
-        <v>-478662.33324730897</v>
+        <v>-258022.33324730908</v>
       </c>
       <c r="AA106" s="130">
         <f t="shared" ca="1" si="34"/>
-        <v>-275204.57447085157</v>
+        <v>-23044.574470851687</v>
       </c>
       <c r="AB106" s="130">
         <f t="shared" ca="1" si="34"/>
-        <v>-70017.315694394172</v>
+        <v>213662.68430560571</v>
       </c>
       <c r="AC106" s="130">
         <f t="shared" ca="1" si="34"/>
-        <v>154090.19308206323</v>
+        <v>469290.19308206311</v>
       </c>
       <c r="AD106" s="130">
         <f t="shared" ca="1" si="34"/>
-        <v>371703.45185852062</v>
+        <v>718423.45185852051</v>
       </c>
       <c r="AE106" s="130">
         <f t="shared" ca="1" si="34"/>
-        <v>576511.21063497802</v>
+        <v>954751.21063497791</v>
       </c>
       <c r="AF106" s="130"/>
       <c r="AG106" s="2"/>
@@ -20892,9 +20847,9 @@
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="AE138" s="28" t="str">
+      <c r="AE138" s="28">
         <f t="shared" si="38"/>
-        <v/>
+        <v>24</v>
       </c>
       <c r="AF138" s="28"/>
       <c r="AG138" s="72"/>
@@ -21144,51 +21099,51 @@
       </c>
       <c r="S141" s="97">
         <f t="shared" ref="S141:AD141" si="41">T90</f>
-        <v>-2519684</v>
+        <v>-2488164</v>
       </c>
       <c r="T141" s="97">
         <f t="shared" si="41"/>
-        <v>-2328391.5</v>
+        <v>-2265351.5</v>
       </c>
       <c r="U141" s="97">
         <f t="shared" si="41"/>
-        <v>-2127624.25</v>
+        <v>-2033064.25</v>
       </c>
       <c r="V141" s="97">
         <f t="shared" si="41"/>
-        <v>-1926398.75</v>
+        <v>-1800318.75</v>
       </c>
       <c r="W141" s="97">
         <f t="shared" si="41"/>
-        <v>-1717805.25</v>
+        <v>-1560205.25</v>
       </c>
       <c r="X141" s="97">
         <f t="shared" si="41"/>
-        <v>-1499433.25</v>
+        <v>-1310313.25</v>
       </c>
       <c r="Y141" s="97">
         <f t="shared" si="41"/>
-        <v>-1269803.75</v>
+        <v>-1049163.75</v>
       </c>
       <c r="Z141" s="97">
         <f t="shared" si="41"/>
-        <v>-1050879.75</v>
+        <v>-798719.75</v>
       </c>
       <c r="AA141" s="97">
         <f t="shared" si="41"/>
-        <v>-830226.25</v>
+        <v>-546546.25</v>
       </c>
       <c r="AB141" s="97">
         <f t="shared" si="41"/>
-        <v>-590652.5</v>
+        <v>-275452.5</v>
       </c>
       <c r="AC141" s="97">
         <f t="shared" si="41"/>
-        <v>-357573</v>
+        <v>-10853</v>
       </c>
       <c r="AD141" s="97">
         <f t="shared" si="41"/>
-        <v>-137299</v>
+        <v>240941</v>
       </c>
       <c r="AE141" s="28"/>
       <c r="AF141" s="28"/>
@@ -21370,51 +21325,51 @@
       </c>
       <c r="S145" s="141">
         <f t="shared" ref="S145:AD145" ca="1" si="44">T106</f>
-        <v>-1635745.1359060537</v>
+        <v>-1604225.1359060537</v>
       </c>
       <c r="T145" s="141">
         <f t="shared" ca="1" si="44"/>
-        <v>-1459918.8771295962</v>
+        <v>-1396878.8771295962</v>
       </c>
       <c r="U145" s="141">
         <f t="shared" ca="1" si="44"/>
-        <v>-1274617.8683531387</v>
+        <v>-1180057.8683531387</v>
       </c>
       <c r="V145" s="141">
         <f t="shared" ca="1" si="44"/>
-        <v>-1088858.6095766812</v>
+        <v>-962778.60957668128</v>
       </c>
       <c r="W145" s="141">
         <f t="shared" ca="1" si="44"/>
-        <v>-895731.35080022376</v>
+        <v>-738131.35080022388</v>
       </c>
       <c r="X145" s="141">
         <f t="shared" ca="1" si="44"/>
-        <v>-692825.59202376637</v>
+        <v>-503705.59202376648</v>
       </c>
       <c r="Y145" s="141">
         <f t="shared" ca="1" si="44"/>
-        <v>-478662.33324730897</v>
+        <v>-258022.33324730908</v>
       </c>
       <c r="Z145" s="141">
         <f t="shared" ca="1" si="44"/>
-        <v>-275204.57447085157</v>
+        <v>-23044.574470851687</v>
       </c>
       <c r="AA145" s="141">
         <f t="shared" ca="1" si="44"/>
-        <v>-70017.315694394172</v>
+        <v>213662.68430560571</v>
       </c>
       <c r="AB145" s="141">
         <f t="shared" ca="1" si="44"/>
-        <v>154090.19308206323</v>
+        <v>469290.19308206311</v>
       </c>
       <c r="AC145" s="141">
         <f t="shared" ca="1" si="44"/>
-        <v>371703.45185852062</v>
+        <v>718423.45185852051</v>
       </c>
       <c r="AD145" s="141">
         <f t="shared" ca="1" si="44"/>
-        <v>576511.21063497802</v>
+        <v>954751.21063497791</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1"/>
@@ -22546,7 +22501,7 @@
       <c r="G19" s="150"/>
       <c r="H19" s="149">
         <f>-'(2) FORECAST'!AF81</f>
-        <v>-928560</v>
+        <v>-550320</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
@@ -22561,7 +22516,7 @@
       <c r="G20" s="152"/>
       <c r="H20" s="152">
         <f>H17+H19</f>
-        <v>2556426</v>
+        <v>2934666</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
@@ -22598,7 +22553,7 @@
       <c r="G23" s="152"/>
       <c r="H23" s="152">
         <f ca="1">H20+H22</f>
-        <v>2520997.5051023052</v>
+        <v>2899237.5051023052</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
@@ -22624,7 +22579,7 @@
       <c r="G25" s="150"/>
       <c r="H25" s="149">
         <f ca="1">-E25*H23</f>
-        <v>-630249.3762755763</v>
+        <v>-724809.3762755763</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
@@ -22639,7 +22594,7 @@
       <c r="G26" s="152"/>
       <c r="H26" s="152">
         <f ca="1">H23+H25</f>
-        <v>1890748.128826729</v>
+        <v>2174428.128826729</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
@@ -22729,7 +22684,7 @@
       <c r="G38" s="155"/>
       <c r="H38" s="157">
         <f>MIN('(2) FORECAST'!F138:AE138)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1"/>
